--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -931,7 +931,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2288,7 +2288,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -1364,11 +1364,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2nd Aurora</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2109,11 +2105,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1st Aurora</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gold Camry available, Equip</t>
+          <t>Red Camry available, Equip</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -1417,7 +1417,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Call Laura - to access building 262-470-0648</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,21 +1447,9 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Red Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -1492,15 +1480,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Red Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1531,12 +1523,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1568,8 +1560,16 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1631,11 +1631,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1664,7 +1660,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1707,7 +1703,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1738,7 +1734,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1150, KENOSHA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1769,7 +1765,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10400 75TH ST</t>
+          <t>AURORA OUTPATIENT RX #1150, KENOSHA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1804,7 +1800,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/K5ZSZyLo7jH2</t>
+          <t>10400 75TH ST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1839,7 +1835,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>APPROX 9:30 AM START</t>
+          <t>https://goo.gl/maps/K5ZSZyLo7jH2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1874,7 +1870,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:30 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1909,7 +1905,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AURORA VISION #1150, KENOSHA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1944,7 +1940,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6815 118TH AVE</t>
+          <t>AURORA VISION #1150, KENOSHA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1979,7 +1975,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zRYCmicZWfv</t>
+          <t>6815 118TH AVE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2008,7 +2004,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zRYCmicZWfv</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -2046,22 +2046,9 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -2101,15 +2088,20 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -2142,8 +2134,16 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -2205,11 +2205,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2238,7 +2234,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2273,7 +2269,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2312,7 +2308,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2343,7 +2339,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2374,7 +2370,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2403,7 +2399,11 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2429,22 +2429,9 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2471,15 +2458,20 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2504,8 +2496,16 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2559,11 +2559,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>5:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2592,7 +2588,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2623,7 +2619,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2654,7 +2650,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MEIKLE'S ACE HARDWARE, MADISON</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2685,7 +2681,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2935 N SHERMAN AVE</t>
+          <t>MEIKLE'S ACE HARDWARE, MADISON</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2716,7 +2712,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6d5mSoGyRkEh9ggy8</t>
+          <t>2935 N SHERMAN AVE</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2747,7 +2743,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023 - WE DID NOT COUNT ANY LOOSE HILLMAN ITEMS</t>
+          <t>https://maps.app.goo.gl/6d5mSoGyRkEh9ggy8</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2776,7 +2772,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2023 - WE DID NOT COUNT ANY LOOSE HILLMAN ITEMS</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2802,21 +2802,9 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2843,15 +2831,19 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2878,12 +2870,12 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2913,12 +2905,12 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2948,12 +2940,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2983,20 +2975,15 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3023,17 +3010,18 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3062,12 +3050,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3101,12 +3089,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3140,12 +3128,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3177,9 +3165,21 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3231,16 +3231,8 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3266,17 +3258,17 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>C-STORE ONLY @ BOTH</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3304,10 +3296,14 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CONDON OIL #270, POY SIPPI</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>C-STORE ONLY @ BOTH</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3335,7 +3331,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>239 MAIN ST</t>
+          <t>CONDON OIL #270, POY SIPPI</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3366,7 +3362,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Nz84R23bat22</t>
+          <t>239 MAIN ST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3397,7 +3393,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/Nz84R23bat22</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3428,7 +3424,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3459,7 +3455,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CONDON OIL #135, OMRO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3490,7 +3486,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>163 E MAIN ST</t>
+          <t>CONDON OIL #135, OMRO</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3521,7 +3517,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/w6KtjB6H4g72</t>
+          <t>163 E MAIN ST</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3550,7 +3546,11 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/w6KtjB6H4g72</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3576,21 +3576,9 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3617,17 +3605,17 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3656,17 +3644,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3693,9 +3681,21 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3748,11 +3748,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3781,7 +3777,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3804,6 +3800,37 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -658,7 +658,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>*This is a slower week due to Thanksgiving</t>
+          <t>This is a slower week due to Thanksgiving</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -540,7 +540,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KATHERINE </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -542,14 +542,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">KATHERINE </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -575,12 +587,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -610,8 +638,16 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 3,4</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -513,8 +513,16 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -554,12 +562,12 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lashaun </t>
+          <t xml:space="preserve">DJ </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bag 9</t>
+          <t>Bag 1, SB 11</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -601,12 +609,12 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">DJ </t>
+          <t xml:space="preserve">Katherine </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bag 1, SB 11</t>
+          <t>Bag 3,4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -638,16 +646,8 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Bag 3,4</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>

--- a/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
+++ b/11-24-24 to 11-30-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3205,21 +3205,9 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3271,8 +3259,16 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3298,17 +3294,17 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>C-STORE ONLY @ BOTH</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3336,14 +3332,10 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>C-STORE ONLY @ BOTH</t>
-        </is>
-      </c>
+          <t>CONDON OIL #270, POY SIPPI</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3371,7 +3363,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CONDON OIL #270, POY SIPPI</t>
+          <t>239 MAIN ST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3402,7 +3394,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>239 MAIN ST</t>
+          <t>https://goo.gl/maps/Nz84R23bat22</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3433,7 +3425,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Nz84R23bat22</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3464,7 +3456,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3495,7 +3487,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #135, OMRO</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3526,7 +3518,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CONDON OIL #135, OMRO</t>
+          <t>163 E MAIN ST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3557,7 +3549,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>163 E MAIN ST</t>
+          <t>https://goo.gl/maps/w6KtjB6H4g72</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3586,11 +3578,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/w6KtjB6H4g72</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3616,9 +3604,21 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3645,17 +3645,17 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -3684,17 +3684,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3721,21 +3721,9 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3788,7 +3776,11 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3817,7 +3809,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3840,37 +3832,6 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
